--- a/data/trans_camb/P13_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P13_R-Estudios-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>0.6540754031155214</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6.088951474206232</v>
+        <v>6.088951474206235</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>7.929278173664938</v>
@@ -664,7 +664,7 @@
         <v>2.297515020515271</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>8.83816640418914</v>
+        <v>8.838166404189138</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.4251032493525474</v>
+        <v>-0.2765142693208117</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.680326602766159</v>
+        <v>-1.5580432351628</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.240943541594407</v>
+        <v>3.561533690209672</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.55125059540851</v>
+        <v>5.515292186037748</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.9199212870128436</v>
+        <v>1.362833521374091</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>8.125925020656608</v>
+        <v>8.168899693913554</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.707970563006076</v>
+        <v>3.620763856706062</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.5720987646063741</v>
+        <v>0.5405494551239017</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>6.834573030155491</v>
+        <v>6.98816577139007</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.136547999342643</v>
+        <v>4.227845802612354</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.769874485151308</v>
+        <v>2.941310922867413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8.851820225279569</v>
+        <v>8.971401306690407</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.45141773399587</v>
+        <v>10.42504820591416</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>5.885606268380414</v>
+        <v>6.048697465081288</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.01481432321522</v>
+        <v>13.45623554312592</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>7.118240157379316</v>
+        <v>7.233393500450925</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>3.929701221035062</v>
+        <v>4.051920244729863</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.7880617827753</v>
+        <v>10.79987694819708</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.070285331385765</v>
+        <v>-0.06011192884292912</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2651714736917834</v>
+        <v>-0.2388510423196299</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.4988197892808775</v>
+        <v>0.5303939691167173</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.6725568294528649</v>
+        <v>0.6933989969658857</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1090350580872333</v>
+        <v>0.1535735777159207</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9776680316281008</v>
+        <v>0.9763775904334581</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5115723134868188</v>
+        <v>0.4956920638823797</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.08003191436681087</v>
+        <v>0.07542180270707008</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.9735396370979361</v>
+        <v>0.9642685916307451</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.9809046745856579</v>
+        <v>0.9416553225114113</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.6144523206261931</v>
+        <v>0.6791033246096828</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.043094688584082</v>
+        <v>2.082507292443187</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.682671349834727</v>
+        <v>1.705234454663642</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9315223956474142</v>
+        <v>0.97944871847943</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.139411141673676</v>
+        <v>2.19724693615642</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.270035271450936</v>
+        <v>1.271180692204898</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.6874789737496734</v>
+        <v>0.7231691290608231</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.930322255622213</v>
+        <v>1.942793242556996</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>0.5737601212042118</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1.791031166444767</v>
+        <v>1.791031166444766</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>3.063244041035559</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.395766347305807</v>
+        <v>0.490581336008069</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.5092666615351265</v>
+        <v>-0.5235880327816204</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7859599067700671</v>
+        <v>0.6256874783921539</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.606436801277805</v>
+        <v>1.504100719183521</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9561463238283432</v>
+        <v>-1.161876347106545</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.523459178694503</v>
+        <v>0.4720227090063193</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.323510030885127</v>
+        <v>1.355954539200244</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4099420692831431</v>
+        <v>-0.4056092495772797</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.9450370903962143</v>
+        <v>0.89534255565382</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.678583359162172</v>
+        <v>2.794679388635346</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.712050002256127</v>
+        <v>1.540015850630606</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.92864002476706</v>
+        <v>2.898605844042098</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.591084030989927</v>
+        <v>4.562492634905143</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.49038738679977</v>
+        <v>1.367363239224404</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.798872777265883</v>
+        <v>2.898395001281024</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.189602335928001</v>
+        <v>3.214250218160349</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.250899034337831</v>
+        <v>1.231912124276592</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.60111475199737</v>
+        <v>2.711432588832581</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.2519708978878865</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.7865442620987855</v>
+        <v>0.7865442620987851</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.9427932474335108</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1260949280388267</v>
+        <v>0.145368065045105</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1869749044810252</v>
+        <v>-0.201544566055234</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2605131383845656</v>
+        <v>0.2131536734548126</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3947611990353597</v>
+        <v>0.3596347405312328</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2453403024786488</v>
+        <v>-0.2897885235293335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1188270320293102</v>
+        <v>0.107070801125781</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4074426359512295</v>
+        <v>0.413775255746419</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1322277736033244</v>
+        <v>-0.1331713513887099</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.2849674871249056</v>
+        <v>0.2757518083186118</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.475119184645079</v>
+        <v>1.543586601756185</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.9461166596470477</v>
+        <v>0.8217241658178924</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.684960296427148</v>
+        <v>1.626503231993917</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.683733792560043</v>
+        <v>1.743801079640249</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.5876692997814335</v>
+        <v>0.4983224758565917</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.101930493403093</v>
+        <v>1.103415846430224</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.405661627136686</v>
+        <v>1.365900258933996</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5367483921655839</v>
+        <v>0.5277587728123969</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.086059223738594</v>
+        <v>1.153557547323895</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>0.09387927661542658</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.6016824142974043</v>
+        <v>0.6016824142974035</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.9507880037950294</v>
+        <v>-0.9868344534938185</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.233475301269795</v>
+        <v>-1.229997994187868</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.09435381282378466</v>
+        <v>-0.03423459085160324</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-2.744324970465256</v>
+        <v>-2.981260810581495</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.775048976431827</v>
+        <v>-2.639822410097212</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-2.975720740681671</v>
+        <v>-2.915018375445234</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.337891535286337</v>
+        <v>-1.245441985573719</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.36935626080336</v>
+        <v>-1.40663538186537</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.7769991041972272</v>
+        <v>-0.6834560675708259</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.078718495262127</v>
+        <v>2.833206178591241</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.2455496540339</v>
+        <v>2.399830487155723</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.686037370852322</v>
+        <v>3.798134237211753</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.208587528430587</v>
+        <v>2.334560746401624</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.083032458590136</v>
+        <v>2.074279500325662</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>1.192273969684987</v>
+        <v>1.190607155391408</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.014416667576793</v>
+        <v>1.953318227762127</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.737698057589032</v>
+        <v>1.55463812159679</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.947585317344588</v>
+        <v>1.953954233886688</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.2389920085209041</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.9446923991690467</v>
+        <v>0.9446923991690463</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.08696688437374642</v>
@@ -1197,7 +1197,7 @@
         <v>0.03316221722777977</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2125402287322987</v>
+        <v>0.2125402287322985</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3877070363899535</v>
+        <v>-0.4232988175904754</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5008409344979371</v>
+        <v>-0.489475182563711</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1165959997084528</v>
+        <v>-0.06209538359964404</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.571774085407515</v>
+        <v>-0.5886007032100696</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5326166752738918</v>
+        <v>-0.5257589251588682</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5266854016761362</v>
+        <v>-0.5383163114889983</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3590065537984151</v>
+        <v>-0.3583214932222767</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3983638993151449</v>
+        <v>-0.4041798541020586</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.2267495136689941</v>
+        <v>-0.1891022464983661</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>3.102510046500094</v>
+        <v>2.743862011447792</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>2.287095782526037</v>
+        <v>2.290623591447671</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>3.058897056070505</v>
+        <v>3.809914167803322</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8169670542378379</v>
+        <v>0.8277668442746795</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.8360498535023504</v>
+        <v>0.8800433767615184</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4590572692804122</v>
+        <v>0.5128345258733503</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.002984969830175</v>
+        <v>0.8951112813312307</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.7890815713045636</v>
+        <v>0.7017334460625109</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.9182226293867101</v>
+        <v>0.992665197214485</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.2955670559092245</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.032273813684908</v>
+        <v>2.032273813684909</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>4.399004617476717</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.4968555275249264</v>
+        <v>0.4860114165774917</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.6594169186242651</v>
+        <v>-0.6452251653080643</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.053436997290125</v>
+        <v>1.025965134334821</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.108983830298405</v>
+        <v>3.080482598379291</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.5905116396030984</v>
+        <v>-0.3447613086115434</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.642569659877457</v>
+        <v>1.554823162551483</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.162391143205715</v>
+        <v>2.154688275755915</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.2098491327398087</v>
+        <v>-0.1943654062519095</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.650631678679975</v>
+        <v>1.654027126063696</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.495875388040225</v>
+        <v>2.500310850385392</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.123656186261301</v>
+        <v>1.125533510758066</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.0417814523686</v>
+        <v>3.096320288664452</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.620850171849438</v>
+        <v>5.633524968650997</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.783432868015751</v>
+        <v>1.762483895585185</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.763547347681682</v>
+        <v>3.536470339990486</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>3.724347806988409</v>
+        <v>3.770575846984184</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>1.200941722808764</v>
+        <v>1.218924489351354</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.019027075849085</v>
+        <v>3.075835208263973</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.09275261475193469</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6377527750219013</v>
+        <v>0.6377527750219015</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.9070024620963897</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.1293835658175022</v>
+        <v>0.125133688553035</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1754052248629618</v>
+        <v>-0.182021890229921</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2783705380415182</v>
+        <v>0.2724150724760581</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.5794956920153223</v>
+        <v>0.5713196840076199</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.112269247273399</v>
+        <v>-0.06787587950208358</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3015847850656432</v>
+        <v>0.2822785642604091</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4992671386967101</v>
+        <v>0.5028516555447686</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.04894005849853647</v>
+        <v>-0.04608855384127979</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.371054905347717</v>
+        <v>0.3742592187691369</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.914631673086276</v>
+        <v>0.895951186447776</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.4182582405812745</v>
+        <v>0.4110478215210581</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.071937736267482</v>
+        <v>1.107420383031755</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.324089291544289</v>
+        <v>1.283816278464908</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4018469287640294</v>
+        <v>0.3970789670372823</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8860197740086715</v>
+        <v>0.825908917268029</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.018463715861796</v>
+        <v>1.048800576553184</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.320540207464788</v>
+        <v>0.3296193448002459</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8182715361415844</v>
+        <v>0.8525828757494812</v>
       </c>
     </row>
     <row r="28">
